--- a/xlsx/美国宪法修正案_intext.xlsx
+++ b/xlsx/美国宪法修正案_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="196">
   <si>
     <t>美国宪法修正案</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>美國憲法</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国宪法修正案</t>
+    <t>美国宪法</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国宪法修正案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E5%BA%8F%E8%A8%80</t>
   </si>
   <si>
-    <t>美國憲法序言</t>
+    <t>美国宪法序言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%B8%80%E6%9D%A1</t>
@@ -83,31 +83,28 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
   </si>
   <si>
-    <t>美國憲法修正案</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%AC%8A%E5%88%A9%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>美國權利法案</t>
+    <t>美国权利法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%85%AB%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
   </si>
   <si>
-    <t>美國憲法第八修正案</t>
+    <t>美国宪法第八修正案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%B9%9D%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
   </si>
   <si>
-    <t>美國憲法第九修正案</t>
+    <t>美国宪法第九修正案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%8D%81%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
   </si>
   <si>
-    <t>美國憲法第十修正案</t>
+    <t>美国宪法第十修正案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E4%B8%80%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
@@ -155,13 +152,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%8D%81%E5%85%AB%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
   </si>
   <si>
-    <t>美國憲法第十八修正案</t>
+    <t>美国宪法第十八修正案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%8D%81%E4%B9%9D%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
   </si>
   <si>
-    <t>美國憲法第十九修正案</t>
+    <t>美国宪法第十九修正案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
@@ -179,7 +176,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%BA%8C%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
   </si>
   <si>
-    <t>美國憲法第二十二修正案</t>
+    <t>美国宪法第二十二修正案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%B8%89%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
@@ -209,7 +206,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%B8%83%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
   </si>
   <si>
-    <t>美國憲法第二十七修正案</t>
+    <t>美国宪法第二十七修正案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:US_Constitution_article_series</t>
@@ -227,9 +224,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
   </si>
   <si>
-    <t>美国宪法</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%94%E6%9D%A1</t>
   </si>
   <si>
@@ -251,19 +245,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%B8%80%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
   </si>
   <si>
-    <t>美國憲法第二十一修正案</t>
+    <t>美国宪法第二十一修正案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9D%83%E5%88%A9%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>美国权利法案</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%B8%80%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
   </si>
   <si>
-    <t>美國憲法第一修正案</t>
+    <t>美国宪法第一修正案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E4%BB%B0%E8%87%AA%E7%94%B1</t>
@@ -275,7 +266,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%80%E8%AB%96%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>言論自由</t>
+    <t>言论自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%BA%E7%89%88%E8%87%AA%E7%94%B1</t>
@@ -287,7 +278,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E6%9C%83%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>集會自由</t>
+    <t>集会自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%B7%E6%84%BF</t>
@@ -299,25 +290,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%97%E8%AD%B0</t>
   </si>
   <si>
-    <t>抗議</t>
+    <t>抗议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%BA%8C%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
   </si>
   <si>
-    <t>美國憲法第二修正案</t>
+    <t>美国宪法第二修正案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%B8%89%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
   </si>
   <si>
-    <t>美國憲法第三修正案</t>
+    <t>美国宪法第三修正案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%9B%9B%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
   </si>
   <si>
-    <t>美國憲法第四修正案</t>
+    <t>美国宪法第四修正案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%B6%E6%8A%BC</t>
@@ -329,13 +320,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B8%E7%95%B6%E7%90%86%E7%94%B1</t>
   </si>
   <si>
-    <t>相當理由</t>
+    <t>相当理由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%BA%94%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
   </si>
   <si>
-    <t>美國憲法第五修正案</t>
+    <t>美国宪法第五修正案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%AA%E5%AE%A1%E5%9B%A2</t>
@@ -353,19 +344,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%85%AD%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
   </si>
   <si>
-    <t>美國憲法第六修正案</t>
+    <t>美国宪法第六修正案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%AA%E5%AF%A9%E5%9C%98</t>
   </si>
   <si>
-    <t>陪審團</t>
+    <t>陪审团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%B8%83%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
   </si>
   <si>
-    <t>美國憲法第七修正案</t>
+    <t>美国宪法第七修正案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%80%9A%E6%B3%95</t>
@@ -383,13 +374,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E9%87%8B</t>
   </si>
   <si>
-    <t>保釋</t>
+    <t>保释</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%B0%E6%AC%BE</t>
   </si>
   <si>
-    <t>罰款</t>
+    <t>罚款</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6</t>
@@ -419,7 +410,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89%E4%BA%BA%E5%9C%98</t>
   </si>
   <si>
-    <t>美國選舉人團</t>
+    <t>美国选举人团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E4%B8%89%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
@@ -431,7 +422,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A5%B4%E9%9A%B8%E5%88%B6%E5%BA%A6</t>
   </si>
   <si>
-    <t>美國奴隸制度</t>
+    <t>美国奴隶制度</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/involuntary_servitude</t>
@@ -443,7 +434,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%8D%81%E5%9B%9B%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
   </si>
   <si>
-    <t>美國憲法第十四修正案</t>
+    <t>美国宪法第十四修正案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E6%9D%83%E5%88%A9</t>
@@ -461,31 +452,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E7%95%B6%E7%A8%8B%E5%BA%8F%E6%A2%9D%E6%AC%BE</t>
   </si>
   <si>
-    <t>正當程序條款</t>
+    <t>正当程序条款</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E7%AD%89%E4%BF%9D%E8%AD%B7%E6%A2%9D%E6%AC%BE</t>
   </si>
   <si>
-    <t>平等保護條款</t>
+    <t>平等保护条款</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>美國內戰</t>
+    <t>美国内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%8D%81%E4%BA%94%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
   </si>
   <si>
-    <t>美國憲法第十五修正案</t>
+    <t>美国宪法第十五修正案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89%E6%AC%8A</t>
   </si>
   <si>
-    <t>選舉權</t>
+    <t>选举权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E5%85%AD%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
@@ -497,7 +488,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%80%E5%BE%97%E7%A8%85</t>
   </si>
   <si>
-    <t>所得稅</t>
+    <t>所得税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E4%B8%83%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
@@ -509,13 +500,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%83%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>美國參議院</t>
+    <t>美国参议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%81%E9%85%92%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>禁酒時期</t>
+    <t>禁酒时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
@@ -527,7 +518,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%9B%E8%85%B3%E9%B4%A8</t>
   </si>
   <si>
-    <t>跛腳鴨</t>
+    <t>跛脚鸭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%B8%89%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
@@ -539,7 +530,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E7%89%B9%E5%8D%80</t>
   </si>
   <si>
-    <t>華盛頓特區</t>
+    <t>华盛顿特区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E5%9B%9B%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
@@ -551,19 +542,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%BA%94%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
   </si>
   <si>
-    <t>美國憲法第二十五修正案</t>
+    <t>美国宪法第二十五修正案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%B3%B0%E5%8B%92</t>
   </si>
   <si>
-    <t>約翰·泰勒</t>
+    <t>约翰·泰勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E5%85%AD%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
   </si>
   <si>
-    <t>美國憲法第二十六修正案</t>
+    <t>美国宪法第二十六修正案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E5%91%98</t>
@@ -575,7 +566,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E6%97%8F%E7%AD%89%E7%B4%9A</t>
   </si>
   <si>
-    <t>貴族等級</t>
+    <t>贵族等级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E7%A7%91%E6%B8%A9</t>
@@ -593,13 +584,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E6%AD%A7%E8%A6%96</t>
   </si>
   <si>
-    <t>性別歧視</t>
+    <t>性别歧视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E5%B9%B3%E7%AD%89</t>
   </si>
   <si>
-    <t>性別平等</t>
+    <t>性别平等</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E6%96%87%E5%BA%93</t>
@@ -1272,7 +1263,7 @@
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>3</v>
@@ -1298,10 +1289,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>3</v>
@@ -1327,10 +1318,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
@@ -1356,10 +1347,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
@@ -1385,10 +1376,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>28</v>
@@ -1414,10 +1405,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>9</v>
@@ -1443,10 +1434,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>4</v>
@@ -1472,10 +1463,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
@@ -1501,10 +1492,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -1530,10 +1521,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>7</v>
@@ -1559,10 +1550,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>5</v>
@@ -1588,10 +1579,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>3</v>
@@ -1617,10 +1608,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1646,10 +1637,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1675,10 +1666,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>8</v>
@@ -1704,10 +1695,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>4</v>
@@ -1733,10 +1724,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -1762,10 +1753,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1791,10 +1782,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1820,10 +1811,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>3</v>
@@ -1849,10 +1840,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -1878,10 +1869,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1907,10 +1898,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>3</v>
@@ -1936,10 +1927,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1965,10 +1956,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="G35" t="n">
         <v>11</v>
@@ -1994,10 +1985,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2023,10 +2014,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2052,10 +2043,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2081,10 +2072,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -2110,10 +2101,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2139,10 +2130,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2168,10 +2159,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2197,10 +2188,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2226,10 +2217,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2255,10 +2246,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2284,10 +2275,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2313,10 +2304,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2342,10 +2333,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G48" t="n">
         <v>12</v>
@@ -2371,10 +2362,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2400,10 +2391,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2429,10 +2420,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G51" t="n">
         <v>3</v>
@@ -2458,10 +2449,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2487,10 +2478,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G53" t="n">
         <v>3</v>
@@ -2516,10 +2507,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2545,10 +2536,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -2574,10 +2565,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2603,10 +2594,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G57" t="n">
         <v>4</v>
@@ -2632,10 +2623,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2661,10 +2652,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G59" t="n">
         <v>3</v>
@@ -2690,10 +2681,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2719,10 +2710,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>24</v>
+      </c>
+      <c r="F61" t="s">
         <v>25</v>
-      </c>
-      <c r="F61" t="s">
-        <v>26</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2748,10 +2739,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2777,10 +2768,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2806,10 +2797,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>26</v>
+      </c>
+      <c r="F64" t="s">
         <v>27</v>
-      </c>
-      <c r="F64" t="s">
-        <v>28</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2835,10 +2826,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>28</v>
+      </c>
+      <c r="F65" t="s">
         <v>29</v>
-      </c>
-      <c r="F65" t="s">
-        <v>30</v>
       </c>
       <c r="G65" t="n">
         <v>11</v>
@@ -2864,10 +2855,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F66" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G66" t="n">
         <v>4</v>
@@ -2893,10 +2884,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F67" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2922,10 +2913,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F68" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2951,10 +2942,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F69" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2980,10 +2971,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F70" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3009,10 +3000,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F71" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3038,10 +3029,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F72" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -3067,10 +3058,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F73" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3096,10 +3087,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F74" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3125,10 +3116,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F75" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3154,10 +3145,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F76" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3183,10 +3174,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F77" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3212,10 +3203,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F78" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3241,10 +3232,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F79" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3270,10 +3261,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F80" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3299,10 +3290,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F81" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G81" t="n">
         <v>3</v>
@@ -3328,10 +3319,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F82" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3357,10 +3348,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3386,10 +3377,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3415,10 +3406,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F85" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3444,10 +3435,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
         <v>45</v>
-      </c>
-      <c r="F86" t="s">
-        <v>46</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -3473,10 +3464,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F87" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3502,10 +3493,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>46</v>
+      </c>
+      <c r="F88" t="s">
         <v>47</v>
-      </c>
-      <c r="F88" t="s">
-        <v>48</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3531,10 +3522,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F89" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G89" t="n">
         <v>11</v>
@@ -3560,10 +3551,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F90" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3589,10 +3580,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F91" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G91" t="n">
         <v>3</v>
@@ -3618,10 +3609,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
         <v>45</v>
-      </c>
-      <c r="F92" t="s">
-        <v>46</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3647,10 +3638,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>52</v>
+      </c>
+      <c r="F93" t="s">
         <v>53</v>
-      </c>
-      <c r="F93" t="s">
-        <v>54</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3676,10 +3667,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F94" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3705,10 +3696,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F95" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -3734,10 +3725,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F96" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3763,10 +3754,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F97" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3792,10 +3783,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F98" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3821,10 +3812,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F99" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3850,10 +3841,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F100" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -3879,10 +3870,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>62</v>
+      </c>
+      <c r="F101" t="s">
         <v>63</v>
-      </c>
-      <c r="F101" t="s">
-        <v>64</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -3908,10 +3899,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F102" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -3937,10 +3928,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F103" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -3966,10 +3957,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F104" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -3995,10 +3986,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F105" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4024,10 +4015,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F106" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4053,10 +4044,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F107" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4082,10 +4073,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F108" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4111,10 +4102,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F109" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G109" t="n">
         <v>3</v>
